--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1325774.792574701</v>
+        <v>1323439.681372721</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.10522832</v>
+        <v>416855.1052283202</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>207.7555168058916</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>13.73520664296402</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>282.0179652240194</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>323.8408286396447</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>196.6997841156775</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>100.686769024941</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>153.7312730021086</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>361.3955684249542</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>171.1167978045342</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>157.7822070347172</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187834</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428082</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.9742741983373</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>59.66990246485271</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560513</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.6164309267676</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699805</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.79222725775175</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>112.668313093795</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337068</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>50.0620915095756</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465679</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189243</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833994</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892428</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.0312718434585</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.155307492517</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1083.192790552105</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>724.9270919453545</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>339.1388393471103</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.89447953245</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.755147556638</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034346</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844846</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159563</v>
+        <v>638.3296170496761</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751764</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1442.728169540454</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C4" t="n">
-        <v>1273.791986612547</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.791986612547</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E4" t="n">
-        <v>1125.878893030154</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>1125.878893030154</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030154</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>2249.253227971594</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1960.134890475432</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1960.134890475432</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1670.717720438471</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="X4" t="n">
-        <v>1442.728169540454</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="Y4" t="n">
-        <v>1442.728169540454</v>
+        <v>388.1694341876314</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360221</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.637639419809</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>1058.371940813058</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5836882148142</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>261.5977834252066</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>249.9334371898996</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400154</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400154</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400154</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424342</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380235</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.246581869495</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>934.7929217761706</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>765.8567388482637</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>615.740099435928</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>467.8270058535348</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>320.9370583556245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>152.950593663903</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>152.950593663903</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312192</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1481.162005930953</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1192.043668434791</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.23396574994</v>
+        <v>937.3591802289043</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.23396574994</v>
+        <v>647.9420101919436</v>
       </c>
       <c r="X7" t="n">
-        <v>1337.23396574994</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="Y7" t="n">
-        <v>1116.44138660641</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.6439622052</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1632.681445264788</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1274.415746658038</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>888.6274940597932</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269321</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.243802269321</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>739.535451687217</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.913939313769</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5537,25 +5537,25 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297703</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,16 +5747,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,10 +5765,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,25 +6236,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935558</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>666.6476097656489</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>516.5309703533131</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6655,16 +6655,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876688</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>432.9862109052757</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0962634073653</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706063</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960426994</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>241.7297566303637</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063198</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718102</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085241</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879354</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842394</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443762</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008461</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694708</v>
@@ -7196,25 +7196,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190824</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>801.6918836311994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>651.5752442188636</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>503.6621506364705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>356.7722031385601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883062413</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024547</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787836</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780637</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154994</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>3.240074875066057e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393153</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393155</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>166.0397529241844</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.21554925516972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345295076</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922764</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23969,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.364242052659392e-12</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>166.0397529241855</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.5956654067403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>33.76564955277412</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>115.4620467826932</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856722</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.45968844822923</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822923</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>45.49286644881035</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.861188667</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.861188667</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936147.8611886672</v>
+        <v>936147.8611886669</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886671</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>936147.8611886674</v>
+        <v>936147.8611886672</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="F2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="I2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="G2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140034</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="N2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="O2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="P2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403382</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309561</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.25639174426</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744284</v>
@@ -26451,13 +26451,13 @@
         <v>8727.256391744284</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850586.6310741776</v>
+        <v>-850586.6310741778</v>
       </c>
       <c r="C6" t="n">
-        <v>264165.1525017426</v>
+        <v>264165.1525017423</v>
       </c>
       <c r="D6" t="n">
-        <v>104149.6897537429</v>
+        <v>104149.6897537434</v>
       </c>
       <c r="E6" t="n">
-        <v>49025.71179099736</v>
+        <v>48990.973865562</v>
       </c>
       <c r="F6" t="n">
-        <v>374438.173598352</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="G6" t="n">
-        <v>374438.1735983525</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="H6" t="n">
-        <v>374438.1735983521</v>
+        <v>374403.4356729161</v>
       </c>
       <c r="I6" t="n">
-        <v>374438.173598352</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="J6" t="n">
-        <v>206832.9957883694</v>
+        <v>206798.2578629337</v>
       </c>
       <c r="K6" t="n">
-        <v>374438.1735983521</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="L6" t="n">
-        <v>326144.2035901614</v>
+        <v>326109.4656647258</v>
       </c>
       <c r="M6" t="n">
-        <v>289383.1456628405</v>
+        <v>289348.4077374048</v>
       </c>
       <c r="N6" t="n">
-        <v>374438.1735983521</v>
+        <v>374403.4356729165</v>
       </c>
       <c r="O6" t="n">
-        <v>374438.1735983522</v>
+        <v>374403.4356729164</v>
       </c>
       <c r="P6" t="n">
-        <v>374438.1735983522</v>
+        <v>374403.4356729166</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26738,19 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175389</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,25 +26963,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757594</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>199.1205289358198</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>207.0134893542479</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.505033112571596</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>41.4320631313629</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>104.3187684467279</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>4.109826178959622</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>40.93118735962889</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.48047731675723</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>198.6143028739349</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.0026523482567</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.4296311708957</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30150,7 +30150,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -30435,7 +30435,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,34 +31449,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31762,28 +31762,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>613.2529048371039</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31914,7 +31914,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31929,13 +31929,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>302.3396059822683</v>
       </c>
       <c r="M15" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>195.7502366106288</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,16 +33968,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>235.5705495535871</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>535.8585467435946</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>661.8411144019726</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34466,10 +34466,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922369</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>343.4452429480957</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34793,7 +34793,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637947</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313207</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820403</v>
+        <v>535.6747904601043</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>471.1188709150855</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>163.7852262023941</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>61.77582919629853</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>44.09163190712581</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578466</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>393.2623022991502</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799544</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
